--- a/mlb-team-info.xlsx
+++ b/mlb-team-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\mlb-linked-data-types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8517799-73E2-4B80-9960-3B7CB5B8459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E888CE9-161C-4E8A-81D2-A9ED744E0097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{AEF86252-C172-4E83-8E10-24B41CD642FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Team</t>
   </si>
@@ -369,6 +369,72 @@
   </si>
   <si>
     <t>Nationals Park</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/braves.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/angels.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/astros.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/athletics.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/blueJays.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/brewers.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/cardinals.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/cubs.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/diamondbacks.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/dodgers.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/giants.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/indians.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/mariners.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/marlins.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/mets.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/nationals.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/orioles.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/phillies.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/pirates.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/rangers.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/klunn91/team-logos/master/MLB/rays.png</t>
+  </si>
+  <si>
+    <t>Image URL</t>
   </si>
 </sst>
 </file>
@@ -404,9 +470,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,13 +810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67991F2C-ED0C-4037-A762-A6FFD9D4F028}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
@@ -762,7 +831,7 @@
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,8 +856,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -813,8 +885,11 @@
       <c r="H2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -839,8 +914,11 @@
       <c r="H3">
         <v>1995</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -865,8 +943,11 @@
       <c r="H4">
         <v>1983</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -892,7 +973,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:9" ht="239.65" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -917,8 +998,11 @@
       <c r="H6">
         <v>2016</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -944,7 +1028,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -970,7 +1054,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -995,8 +1079,11 @@
       <c r="H9">
         <v>1948</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1019,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1045,7 +1132,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1070,8 +1157,11 @@
       <c r="H12">
         <v>2017</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1097,7 +1187,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1122,8 +1212,11 @@
       <c r="H14">
         <v>2002</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I14" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1148,8 +1241,11 @@
       <c r="H15">
         <v>2020</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I15" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1174,8 +1270,11 @@
       <c r="H16">
         <v>2003</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1197,8 +1296,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1224,7 +1326,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:9" ht="239.65" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1249,8 +1351,11 @@
       <c r="H19">
         <v>1986</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1276,7 +1381,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -1301,8 +1406,11 @@
       <c r="H21">
         <v>1989</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1327,8 +1435,11 @@
       <c r="H22">
         <v>2008</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I22" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1353,8 +1464,11 @@
       <c r="H23">
         <v>1979</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I23" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -1379,8 +1493,11 @@
       <c r="H24">
         <v>2014</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1402,8 +1519,11 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I25" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -1428,8 +1548,11 @@
       <c r="H26">
         <v>2011</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I26" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="239.65" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1451,8 +1574,11 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I27" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -1474,8 +1600,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I28" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -1500,8 +1629,11 @@
       <c r="H29">
         <v>1993</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I29" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="266.25" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -1525,6 +1657,9 @@
       </c>
       <c r="H30">
         <v>2019</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
